--- a/console/Networking/agExcel/components/autoScaling/components/startAS.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/components/startAS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ABFED7-FB5E-574C-8FF8-03333F4FD931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -190,27 +196,27 @@
     <t>Maximum Number of Instances</t>
   </si>
   <si>
-    <t>Please select removal policies</t>
-  </si>
-  <si>
-    <t>'Default Removal Strategy'</t>
-  </si>
-  <si>
-    <t>'Remove the earliest instance created'</t>
-  </si>
-  <si>
-    <t>'Remove the latest instance created'</t>
-  </si>
-  <si>
-    <t>Removal Strategy</t>
+    <t>Removal Policy</t>
+  </si>
+  <si>
+    <t>Please select removal policy</t>
+  </si>
+  <si>
+    <t>Remove the earliest created instance'</t>
+  </si>
+  <si>
+    <t>Remove the latest created instance'</t>
+  </si>
+  <si>
+    <t>Default removal policy'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +237,12 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,9 +265,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -594,94 +607,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
